--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,24 +529,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -544,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -573,10 +641,9 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -588,7 +655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -600,7 +667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -611,7 +678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -529,24 +461,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -612,7 +544,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -641,9 +573,10 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -655,7 +588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -667,7 +600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,50 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>browser = a computer program for d***** and navigating between web pages</t>
+  </si>
+  <si>
+    <t>displaying</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>browser = a computer program for displaying and n***** between web pages</t>
+  </si>
+  <si>
+    <t>navigating</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,48 +193,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -463,120 +507,90 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>416</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>browser = a computer program for d***** and navigating between web pages</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>displaying</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>417</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>browser = a computer program for displaying and n***** between web pages</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>navigating</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -588,7 +602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -600,7 +614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -611,7 +625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,50 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>browser = a computer program for d***** and navigating between web pages</t>
-  </si>
-  <si>
-    <t>displaying</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>browser = a computer program for displaying and n***** between web pages</t>
-  </si>
-  <si>
-    <t>navigating</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -193,48 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -507,90 +463,120 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>416</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>browser = a computer program for d***** and navigating between web pages</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>displaying</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>417</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>browser = a computer program for displaying and n***** between web pages</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>navigating</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7"/>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -602,7 +588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -614,7 +600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -625,7 +611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,22 +531,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -544,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -576,7 +644,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -588,7 +656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -600,7 +668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -611,7 +679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,22 +463,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -612,7 +544,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -644,7 +576,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -656,7 +588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -668,7 +600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -679,7 +611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -461,11 +461,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -573,7 +573,63 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>918</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to take out, especially by force</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>919</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>to extract = to ***** out, especially by force</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,24 +529,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E6" pane="bottomLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -544,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -629,10 +697,9 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -644,7 +711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -656,7 +723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -667,7 +734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -529,24 +461,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E6" pane="bottomLeft" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>416</v>
       </c>
@@ -612,7 +544,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>417</v>
       </c>
@@ -697,9 +629,10 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -711,7 +644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -723,7 +656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -734,7 +667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,6 +191,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -629,7 +697,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,74 +191,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -529,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -697,6 +629,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,65 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>browser = a computer program for d***** and navigating between web pages</t>
+  </si>
+  <si>
+    <t>displaying</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>browser = a computer program for displaying and n***** between web pages</t>
+  </si>
+  <si>
+    <t>navigating</t>
+  </si>
+  <si>
+    <t>to ***** = to take out, especially by force</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>200728</t>
+  </si>
+  <si>
+    <t>to extract = to ***** out, especially by force</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,48 +208,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -463,176 +522,130 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E6" pane="bottomLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>416</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>browser = a computer program for d***** and navigating between web pages</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>displaying</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>417</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>browser = a computer program for displaying and n***** between web pages</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>navigating</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>918</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>to ***** = to take out, especially by force</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>extract</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200728</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>919</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>to extract = to ***** out, especially by force</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200728</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -644,7 +657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -656,7 +669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -667,7 +680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,65 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>browser = a computer program for d***** and navigating between web pages</t>
-  </si>
-  <si>
-    <t>displaying</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>browser = a computer program for displaying and n***** between web pages</t>
-  </si>
-  <si>
-    <t>navigating</t>
-  </si>
-  <si>
-    <t>to ***** = to take out, especially by force</t>
-  </si>
-  <si>
-    <t>extract</t>
-  </si>
-  <si>
-    <t>200728</t>
-  </si>
-  <si>
-    <t>to extract = to ***** out, especially by force</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -208,48 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -522,130 +463,176 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E6" pane="bottomLeft" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>416</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>browser = a computer program for d***** and navigating between web pages</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>displaying</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>417</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>browser = a computer program for displaying and n***** between web pages</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>navigating</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="n">
         <v>918</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to take out, especially by force</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>919</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>to extract = to ***** out, especially by force</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7"/>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -657,7 +644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -669,7 +656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -680,7 +667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,6 +191,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,74 +191,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,6 +191,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -529,7 +597,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>browser = a computer program for d***** and navigating between web pages</t>
+          <t>browser = a computer program for d***************** and navigating between web pages</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -558,7 +626,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>browser = a computer program for displaying and n***** between web pages</t>
+          <t>browser = a computer program for displaying and n***************** between web pages</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -587,7 +655,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>to ***** = to take out, especially by force</t>
+          <t>t************** = to take out, especially by force</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -615,7 +683,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>to extract = to ***** out, especially by force</t>
+          <t>to extract = to **** out, especially by force</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">

--- a/Questions/English/Definitions 5000.xlsx
+++ b/Questions/English/Definitions 5000.xlsx
@@ -191,74 +191,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -597,7 +529,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>browser = a computer program for d***************** and navigating between web pages</t>
+          <t>browser = a computer program for d***** and navigating between web pages</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -626,7 +558,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>browser = a computer program for displaying and n***************** between web pages</t>
+          <t>browser = a computer program for displaying and n***** between web pages</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -655,7 +587,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>t************** = to take out, especially by force</t>
+          <t>t***** = to take out, especially by force</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
